--- a/src/test/resorce/forresister2.xlsx
+++ b/src/test/resorce/forresister2.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\sogoensyu\src\test\resorce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA60566-3517-41F4-894F-B0C584EB621D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5494DD-953E-4E3B-BE40-055E90AD77DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="forresister" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -452,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E3E71-7604-496F-89FD-877AF1272B90}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -503,24 +502,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EE414B-6313-40D1-9E11-6AB96942188A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>